--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1238.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1238.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>4.170674852478709</v>
+        <v>1.206560850143433</v>
       </c>
       <c r="B1">
-        <v>2.366567703530606</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.547792714593202</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.33858673312301</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.306857521660977</v>
+        <v>1.20355236530304</v>
       </c>
     </row>
   </sheetData>
